--- a/Data Sources/ten_produce.xlsx
+++ b/Data Sources/ten_produce.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\local_benchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D11A47-3888-41D0-BFD6-27E22CB4131F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4DC976-081F-4CBB-AFD7-F31D3FB5E2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CFDE6443-3A78-495A-BF10-AFEE9D3CF606}"/>
   </bookViews>
   <sheets>
-    <sheet name="tomatoes" sheetId="1" r:id="rId1"/>
-    <sheet name="cucumber" sheetId="2" r:id="rId2"/>
-    <sheet name="green beans_peas" sheetId="3" r:id="rId3"/>
-    <sheet name="squash" sheetId="4" r:id="rId4"/>
-    <sheet name="lettuce" sheetId="5" r:id="rId5"/>
-    <sheet name="pepper" sheetId="6" r:id="rId6"/>
-    <sheet name="potatoes" sheetId="7" r:id="rId7"/>
-    <sheet name="raspberriess" sheetId="8" r:id="rId8"/>
+    <sheet name="All_produce" sheetId="1" r:id="rId1"/>
+    <sheet name="green beans_peas" sheetId="3" r:id="rId2"/>
+    <sheet name="squash" sheetId="4" r:id="rId3"/>
+    <sheet name="lettuce" sheetId="5" r:id="rId4"/>
+    <sheet name="pepper" sheetId="6" r:id="rId5"/>
+    <sheet name="potatoes" sheetId="7" r:id="rId6"/>
+    <sheet name="raspberriess" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="104">
   <si>
     <t>Heirloom tomatoes</t>
   </si>
@@ -397,11 +396,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -754,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C40F377-5A9A-4095-BCCC-217B6D8D2CBB}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -836,17 +833,663 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B66BD12-F780-4759-A6E2-A22A0314C53F}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960CEA31-F0CD-43E3-B525-95964294B9B5}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -854,37 +1497,91 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -893,103 +1590,103 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960CEA31-F0CD-43E3-B525-95964294B9B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA66C9F-4ED8-4C91-A801-A133EF7723B9}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="B1" sqref="B1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>21</v>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>21</v>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>30</v>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>30</v>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>30</v>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -998,103 +1695,265 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA66C9F-4ED8-4C91-A801-A133EF7723B9}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89692BE7-6299-40AF-BB1C-DB405A9C2038}">
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B1" sqref="B1:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>39</v>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>39</v>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="D6" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D10" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="E11" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>39</v>
+      <c r="D14" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1103,265 +1962,85 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89692BE7-6299-40AF-BB1C-DB405A9C2038}">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9388F806-E726-47E1-80B8-F80388280253}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B1" sqref="B1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>53</v>
+      <c r="A1" s="27"/>
+      <c r="B1" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>53</v>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>53</v>
+      <c r="E4" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1370,85 +2049,139 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9388F806-E726-47E1-80B8-F80388280253}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B72ADE-9218-4671-A78F-2968A7D44285}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>79</v>
+      <c r="D5" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1457,171 +2190,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B72ADE-9218-4671-A78F-2968A7D44285}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B444DC-AB65-493B-BC6F-72D34CD78856}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B444DC-AB65-493B-BC6F-72D34CD78856}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="38" t="s">
         <v>103</v>
       </c>
     </row>
